--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/52_Kocaeli_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/52_Kocaeli_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E14FAED8-B432-43E5-965F-FCC41347C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5E5D61-8A4D-4EA7-8677-2367A2CFD6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{0779CF09-5D53-49A2-B00C-9BA4FC9086BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{B90E9076-66AF-4EB1-87D2-C9CFC2214F55}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -902,14 +902,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{967A717A-6774-4ABC-8BC4-F04F99556DDF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{60639B06-34E5-429A-9F81-E039FFD73690}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{45DB620E-C697-4B76-A030-01A3E202F55C}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{09B2EAB3-BB09-4379-92A2-782D3773C923}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{973B967C-FAF5-47C2-B42B-B3D08DAF472B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9E0CDFCE-72E8-4AB1-A062-ABA4B2644D9A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A512EC6E-17D9-4073-AC02-7DFE5D387B95}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D3314E30-2F93-496F-8014-3941B8B53003}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6FED6780-EB13-47CA-A428-5B40049CE5BF}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C77D59DE-C37E-4C22-B613-4F2850F71DE4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{72A68BA1-16F9-4F9B-94D0-3EE71DC90591}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{4856F858-7402-450D-BC28-1B3AFD916508}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0C3FA882-CE58-4642-9E64-888151C7D937}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B6473E62-B09A-4B47-89A5-F692A02A87B7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5663B475-1A2F-48F4-84B5-84E791716F1F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C35A5EED-C1B3-445C-94DE-AD5841EDB5F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E948400-50B0-4126-B16A-7ACB149AD863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247DAC4-65DA-4E45-9085-4D3B1E278C60}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2598,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B02F365-8B37-49F7-B322-9A0B032F4AD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0B6731-AD02-4D8B-93C2-08FB1DE62074}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3919,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A262478-4671-4E23-91A5-593C64FF071B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FDCBB0-5F9B-438D-BD1A-8721E822FAE5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5240,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA1C885-6115-47CF-88A3-3E6B9C45A21E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE4F73-3847-44EC-A91E-ED6109D7E175}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6559,7 +6559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C32DFF-5383-4726-A183-F7AA649BDAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E3ECD0-D734-4E53-A766-8D34BA1CC744}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7878,7 +7878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D31D1A-FA66-4ED8-82EB-70C4E9FE8469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5997FF-A96A-4237-9360-AE70E711C58D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9199,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102C3345-33F0-48EE-B590-05A67BBEE52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1965DB-716C-40C9-BFDC-90D3733F8FA1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10520,7 +10520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5484FFA0-195C-46DD-9705-CF8D652FFEA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B2C02-02FA-41CE-9DFE-FD4F39C23B4B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11839,7 +11839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02129107-FF17-4A5E-82B5-1C8F4F43B333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E31A46-9637-429F-AD4D-611E455FFFD1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13158,7 +13158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ABD039-E6CA-443C-8DC3-51DE476A3D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28C94EB-98B8-4944-A768-016C00F0750E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14479,7 +14479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF8F04C-CE57-490C-9E62-B025FED7D823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C7508-648F-4DCF-B14F-40CA5FB4DCDC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15800,7 +15800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA66168-6690-401A-8AA3-61F34B6F6504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD37941A-3BB5-4003-8775-CF9383ED5A15}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
